--- a/Plantillas/FOR- AUTORIZACION DE COMPRAS.xlsx
+++ b/Plantillas/FOR- AUTORIZACION DE COMPRAS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\PP\Sistema_SPagos\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema_SPagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RHU" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="144">
   <si>
     <t>Código</t>
   </si>
@@ -658,6 +658,9 @@
   <si>
     <t xml:space="preserve">PAGO DE CONTADO </t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -666,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +825,13 @@
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1008,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,6 +1149,120 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,15 +1275,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,110 +1296,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1322,12 +1335,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1349,18 +1371,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1376,6 +1386,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1418,21 +1443,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1447,6 +1457,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,7 +1507,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B45A1A8-9C75-4336-A279-FAF2998F3C48}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B45A1A8-9C75-4336-A279-FAF2998F3C48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1569,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{202D9F49-CD25-4C80-8FD4-E02DFB8DB527}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202D9F49-CD25-4C80-8FD4-E02DFB8DB527}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1631,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33744634-A87B-405C-A23C-EF5996B4120E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33744634-A87B-405C-A23C-EF5996B4120E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1696,7 @@
         <xdr:cNvPr id="10" name="Rectángulo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67126F67-68A0-41DB-8CF2-AB43E212E028}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67126F67-68A0-41DB-8CF2-AB43E212E028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1758,7 @@
         <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F16789E-1B3F-41EE-85EE-E17B6823C290}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F16789E-1B3F-41EE-85EE-E17B6823C290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1808,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9330E762-8075-44B8-A51C-B37AFCA7E3A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9330E762-8075-44B8-A51C-B37AFCA7E3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1863,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96E83C47-3976-4909-9DF4-7E33CCC1B76C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E83C47-3976-4909-9DF4-7E33CCC1B76C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1925,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54246339-D43A-44A6-A5DC-BAC8E2B6B4A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54246339-D43A-44A6-A5DC-BAC8E2B6B4A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1987,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF379F7D-FA4F-47FF-A032-381051D2B66A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF379F7D-FA4F-47FF-A032-381051D2B66A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2052,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7239BC14-586B-4AC5-8C45-A29BD868B03D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7239BC14-586B-4AC5-8C45-A29BD868B03D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2114,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71B85039-B3FA-49E4-88E2-DA8572E1B7F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B85039-B3FA-49E4-88E2-DA8572E1B7F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2164,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03B353E7-CC8E-4032-82DE-E8188F205B5F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B353E7-CC8E-4032-82DE-E8188F205B5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2219,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBE33A7F-43E6-4516-8071-3E198058B525}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE33A7F-43E6-4516-8071-3E198058B525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2281,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{972BB1A4-66EA-4098-B18B-6AD5563AD25F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972BB1A4-66EA-4098-B18B-6AD5563AD25F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2343,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA7BD9A-3751-419C-AD33-90DC2BB7898E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA7BD9A-3751-419C-AD33-90DC2BB7898E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2405,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5824D9B6-C231-432D-B746-9D1221C5B2FA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5824D9B6-C231-432D-B746-9D1221C5B2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2467,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FC46AD3-E9ED-47EA-AED6-54B4677993D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC46AD3-E9ED-47EA-AED6-54B4677993D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2517,7 @@
         <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19CAFAE9-A145-324F-E6F2-0A1997D231DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CAFAE9-A145-324F-E6F2-0A1997D231DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2561,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62542E3F-B8F5-4573-8960-13CCD268FAF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62542E3F-B8F5-4573-8960-13CCD268FAF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2616,760 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F61D7929-954E-451B-93AD-01260F34A586}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61D7929-954E-451B-93AD-01260F34A586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421544" y="1501434"/>
+          <a:ext cx="227430" cy="233145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>443643</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>743912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25712AAC-1FC5-4A6C-969C-0964EDB6BED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2415878" y="1114831"/>
+          <a:ext cx="300269" cy="113130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627533</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211806</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>305829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD56497-8A7A-42F5-97B0-79328524606F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4151783" y="1501434"/>
+          <a:ext cx="212923" cy="233145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628459</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56910</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8DCFE7-6A02-4930-B929-CE9997A966AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1793871" y="991567"/>
+          <a:ext cx="235274" cy="185148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400873</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E03498-5386-477C-AFC3-43A0F06CE8C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="278423" y="29308"/>
+          <a:ext cx="532025" cy="710658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346983</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251145</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4053E601-BCA3-4901-BB80-5A359DD46861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="346983" y="7436303"/>
+          <a:ext cx="923337" cy="341539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58969</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>305829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5D48CA-39C3-4249-9847-F3201671DA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421544" y="1501434"/>
+          <a:ext cx="227430" cy="233145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627533</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211806</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>305829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6750548-5111-451E-91CE-65CCC897EA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4151783" y="1501434"/>
+          <a:ext cx="212923" cy="233145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>516401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56910</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>305457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20301725-B76C-46B1-8BE1-A04FD944B1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="922249" y="1497293"/>
+          <a:ext cx="153422" cy="232773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400873</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59081073-CF47-4D5B-8C4B-EC6C0EF6F1BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="278423" y="29308"/>
+          <a:ext cx="532025" cy="710658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388396</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292558</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>208175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0E827E-7E70-495F-8FC9-8F7B8BE2734D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388396" y="7030455"/>
+          <a:ext cx="922923" cy="341539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1126434</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184348</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>299406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A483B7-BD76-4528-B2B3-B0B7CE4EC764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2849217" y="1490870"/>
+          <a:ext cx="209196" cy="233145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-MX" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C141B88-DE24-4C0F-ACF1-9810A65B6A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5465885" y="1494691"/>
+          <a:ext cx="243861" cy="298730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58969</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>305829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0894F65C-BD57-4CEA-BD44-F72B3168CE46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +3434,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25712AAC-1FC5-4A6C-969C-0964EDB6BED1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777C81D1-C293-4804-8102-C59D7B67C79D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +3496,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCD56497-8A7A-42F5-97B0-79328524606F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B85AAE7-01C6-49F9-AA4C-EEBBF22DA71B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +3558,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC8DCFE7-6A02-4930-B929-CE9997A966AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2458922-562C-4083-B9FB-039623408C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +3620,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40E03498-5386-477C-AFC3-43A0F06CE8C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2561E84A-E6B5-4C96-802B-D319D19B3A33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,13 +3656,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>346983</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>251145</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>157842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2895,7 +3670,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4053E601-BCA3-4901-BB80-5A359DD46861}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52692531-FE68-4ABA-B8F9-E9EDFDC4184B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +3705,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2950,404 +3725,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA5D48CA-39C3-4249-9847-F3201671DA0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5421544" y="1501434"/>
-          <a:ext cx="227430" cy="233145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>627533</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211806</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305829</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6750548-5111-451E-91CE-65CCC897EA0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4151783" y="1501434"/>
-          <a:ext cx="212923" cy="233145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>516401</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>56910</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305457</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20301725-B76C-46B1-8BE1-A04FD944B1A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="922249" y="1497293"/>
-          <a:ext cx="153422" cy="232773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>278423</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400873</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>168466</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59081073-CF47-4D5B-8C4B-EC6C0EF6F1BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="278423" y="29308"/>
-          <a:ext cx="532025" cy="710658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>388396</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292558</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>208175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB0E827E-7E70-495F-8FC9-8F7B8BE2734D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="388396" y="7030455"/>
-          <a:ext cx="922923" cy="341539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>184348</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>299406</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63A483B7-BD76-4528-B2B3-B0B7CE4EC764}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2849217" y="1490870"/>
-          <a:ext cx="209196" cy="233145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>65941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C141B88-DE24-4C0F-ACF1-9810A65B6A30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5465885" y="1494691"/>
-          <a:ext cx="243861" cy="298730"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58969</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>286399</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305829</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0894F65C-BD57-4CEA-BD44-F72B3168CE46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB272B89-2D06-4CF6-BBA8-8DD6735A4D96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,7 +3790,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{777C81D1-C293-4804-8102-C59D7B67C79D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FA8138-B155-476D-8FF0-8347662370CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +3852,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B85AAE7-01C6-49F9-AA4C-EEBBF22DA71B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDCE980-53C6-4C3E-8024-DD35CC07AC10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3536,7 +3914,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2458922-562C-4083-B9FB-039623408C3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF37E30-8058-49E8-9920-1FA080B30EE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,363 +3976,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2561E84A-E6B5-4C96-802B-D319D19B3A33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="278423" y="29308"/>
-          <a:ext cx="532025" cy="710658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>346983</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>251145</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>157842</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52692531-FE68-4ABA-B8F9-E9EDFDC4184B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="346983" y="7436303"/>
-          <a:ext cx="923337" cy="341539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58969</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>286399</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305829</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB272B89-2D06-4CF6-BBA8-8DD6735A4D96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5421544" y="1501434"/>
-          <a:ext cx="227430" cy="233145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>X</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1048760</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37940</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>300114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39FA8138-B155-476D-8FF0-8347662370CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2772785" y="1501434"/>
-          <a:ext cx="141705" cy="227430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>627533</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211806</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305829</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BDCE980-53C6-4C3E-8024-DD35CC07AC10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4151783" y="1501434"/>
-          <a:ext cx="212923" cy="233145"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>516401</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>56910</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>305457</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EF37E30-8058-49E8-9920-1FA080B30EE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="925976" y="1501434"/>
-          <a:ext cx="150109" cy="232773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-MX" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>278423</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400873</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>168466</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEDFA5B8-2888-4109-81CB-EF7C7D90E361}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDFA5B8-2888-4109-81CB-EF7C7D90E361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +4026,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5A8D742-C448-4856-9B33-FAC365EB9C10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A8D742-C448-4856-9B33-FAC365EB9C10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,40 +4397,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -4444,10 +4466,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="31" t="s">
         <v>32</v>
       </c>
@@ -4463,16 +4485,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -4485,10 +4507,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
@@ -4503,10 +4525,10 @@
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>59</v>
       </c>
@@ -4515,50 +4537,50 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45509</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="95"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="A16" s="15" t="s">
@@ -4570,15 +4592,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
       <c r="A17" s="16">
@@ -4590,15 +4612,15 @@
       <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="58" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="59"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="35.25" customHeight="1">
       <c r="A18" s="4">
@@ -4610,13 +4632,13 @@
       <c r="C18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
     </row>
     <row r="19" spans="1:8" ht="45.75" customHeight="1">
       <c r="A19" s="4">
@@ -4628,13 +4650,13 @@
       <c r="C19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="1:8" ht="45" customHeight="1">
       <c r="A20" s="4">
@@ -4646,15 +4668,15 @@
       <c r="C20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1">
       <c r="A21" s="4">
@@ -4662,11 +4684,11 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="20.45" customHeight="1">
       <c r="A22" s="4">
@@ -4674,9 +4696,9 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
     </row>
@@ -4686,9 +4708,9 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
     </row>
@@ -4698,67 +4720,67 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="82"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="20"/>
@@ -4771,17 +4793,17 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="69"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="22"/>
@@ -4789,39 +4811,39 @@
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" ht="15">
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="13"/>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="25.9" customHeight="1">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="13"/>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25"/>
@@ -4832,12 +4854,38 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A28:H29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:H3"/>
@@ -4852,32 +4900,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H15"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A28:H29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H19"/>
-    <mergeCell ref="D22:F22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4890,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:H30"/>
     </sheetView>
   </sheetViews>
@@ -4907,40 +4929,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -4976,10 +4998,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="31" t="s">
         <v>76</v>
       </c>
@@ -4995,16 +5017,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -5017,10 +5039,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
@@ -5035,10 +5057,10 @@
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
@@ -5047,52 +5069,52 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45525</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="60">
         <v>45534</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="109" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="97"/>
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="104" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="104"/>
+      <c r="H14" s="105"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="A16" s="15" t="s">
@@ -5104,15 +5126,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
       <c r="A17" s="16">
@@ -5124,15 +5146,15 @@
       <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="97" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="98"/>
+      <c r="H17" s="99"/>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1">
       <c r="A18" s="16">
@@ -5144,13 +5166,13 @@
       <c r="C18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="16">
@@ -5162,13 +5184,13 @@
       <c r="C19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1">
       <c r="A20" s="16">
@@ -5180,13 +5202,13 @@
       <c r="C20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="16">
@@ -5198,13 +5220,13 @@
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="16">
@@ -5216,13 +5238,13 @@
       <c r="C22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="16">
@@ -5234,13 +5256,13 @@
       <c r="C23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="16">
@@ -5252,13 +5274,13 @@
       <c r="C24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="16">
@@ -5270,13 +5292,13 @@
       <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="16">
@@ -5288,13 +5310,13 @@
       <c r="C26" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="4">
@@ -5306,13 +5328,13 @@
       <c r="C27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1">
       <c r="A28" s="4">
@@ -5324,13 +5346,13 @@
       <c r="C28" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="4">
@@ -5342,13 +5364,13 @@
       <c r="C29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="100"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1">
       <c r="A30" s="4">
@@ -5360,13 +5382,13 @@
       <c r="C30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="102"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="4">
@@ -5378,15 +5400,15 @@
       <c r="C31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="97" t="s">
+      <c r="E31" s="70"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="H31" s="98"/>
+      <c r="H31" s="99"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="4">
@@ -5398,13 +5420,13 @@
       <c r="C32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="4">
@@ -5416,13 +5438,13 @@
       <c r="C33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="100"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" s="4">
@@ -5434,13 +5456,13 @@
       <c r="C34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="100"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="4">
@@ -5452,13 +5474,13 @@
       <c r="C35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1">
       <c r="A36" s="4">
@@ -5470,13 +5492,13 @@
       <c r="C36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="100"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="4">
@@ -5488,13 +5510,13 @@
       <c r="C37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="100"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="4">
@@ -5506,13 +5528,13 @@
       <c r="C38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="100"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="101"/>
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="4">
@@ -5524,13 +5546,13 @@
       <c r="C39" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="102"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
     </row>
     <row r="40" spans="1:8" ht="8.4499999999999993" hidden="1" customHeight="1">
       <c r="A40" s="4">
@@ -5538,67 +5560,67 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="67"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1">
-      <c r="A43" s="106"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="108"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:8" ht="12" customHeight="1">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:8" ht="12" customHeight="1">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="20"/>
@@ -5611,17 +5633,17 @@
       <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" ht="15">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="69"/>
+      <c r="H47" s="75"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1">
       <c r="A48" s="22"/>
@@ -5629,39 +5651,39 @@
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8" ht="15">
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="13"/>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="63"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:8" ht="25.9" customHeight="1">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="13"/>
-      <c r="G51" s="65" t="s">
+      <c r="G51" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="65"/>
+      <c r="H51" s="68"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="25"/>
@@ -5672,12 +5694,51 @@
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="G31:H39"/>
+    <mergeCell ref="A42:H43"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G17:H30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="D53:E53"/>
@@ -5694,45 +5755,6 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G17:H30"/>
-    <mergeCell ref="G31:H39"/>
-    <mergeCell ref="A42:H43"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5745,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
@@ -5762,40 +5784,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -5831,10 +5853,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="39" t="s">
         <v>131</v>
       </c>
@@ -5850,16 +5872,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -5872,10 +5894,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
@@ -5890,10 +5912,10 @@
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>132</v>
       </c>
@@ -5902,50 +5924,50 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45685</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="119" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="60">
         <v>45688</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="121" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="121"/>
+      <c r="H14" s="111"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
     </row>
@@ -5959,15 +5981,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1">
       <c r="A17" s="40">
@@ -5979,15 +6001,15 @@
       <c r="C17" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="72" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="110"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1">
       <c r="A18" s="40">
@@ -5999,13 +6021,13 @@
       <c r="C18" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="72" t="s">
         <v>136</v>
       </c>
       <c r="E18" s="110"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1">
       <c r="A19" s="40">
@@ -6017,13 +6039,13 @@
       <c r="C19" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="72" t="s">
         <v>137</v>
       </c>
       <c r="E19" s="110"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" customHeight="1">
       <c r="A20" s="40">
@@ -6035,13 +6057,13 @@
       <c r="C20" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="72" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="110"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1">
       <c r="A21" s="40">
@@ -6049,11 +6071,11 @@
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
-      <c r="D21" s="66"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="110"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" customHeight="1">
       <c r="A22" s="40">
@@ -6061,11 +6083,11 @@
       </c>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="66"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="110"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1">
       <c r="A23" s="40">
@@ -6073,11 +6095,11 @@
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="66"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="110"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1">
       <c r="A24" s="40">
@@ -6085,9 +6107,9 @@
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
-      <c r="D24" s="66"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="110"/>
-      <c r="F24" s="67"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
     </row>
@@ -6097,9 +6119,9 @@
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
-      <c r="D25" s="66"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="67"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="45"/>
       <c r="H25" s="46"/>
     </row>
@@ -6109,11 +6131,11 @@
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
-      <c r="D26" s="66"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="110"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" ht="26.25" hidden="1" customHeight="1">
       <c r="A27" s="40">
@@ -6121,11 +6143,11 @@
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="66"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="110"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" ht="26.25" hidden="1" customHeight="1">
       <c r="A28" s="40">
@@ -6133,9 +6155,9 @@
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="66"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="110"/>
-      <c r="F28" s="67"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
     </row>
@@ -6145,69 +6167,69 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="114"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
     </row>
     <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="117"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="121"/>
     </row>
     <row r="33" spans="1:8" ht="12" customHeight="1">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" ht="12" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="20"/>
@@ -6220,17 +6242,17 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="69"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="22"/>
@@ -6238,39 +6260,39 @@
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1">
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="13"/>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="63"/>
+      <c r="H39" s="66"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="13"/>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="65"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="25"/>
@@ -6281,8 +6303,8 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="13"/>
     </row>
   </sheetData>
@@ -6295,6 +6317,42 @@
     <protectedRange sqref="C19:C20" name="Rango1_6_1_1"/>
   </protectedRanges>
   <mergeCells count="52">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="A12:B12"/>
@@ -6311,42 +6369,6 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6360,8 +6382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
@@ -6372,45 +6394,45 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -6446,10 +6468,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="31" t="s">
         <v>104</v>
       </c>
@@ -6465,16 +6487,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -6486,29 +6508,34 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="154" t="s">
+        <v>143</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
@@ -6517,16 +6544,16 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45525</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="122" t="s">
         <v>57</v>
       </c>
@@ -6535,32 +6562,32 @@
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="60">
         <v>45530</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="109" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="97"/>
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="123">
         <v>641003609</v>
       </c>
       <c r="H14" s="123"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="G15" s="124"/>
       <c r="H15" s="124"/>
     </row>
@@ -6574,15 +6601,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="151"/>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
       <c r="A17" s="16">
@@ -6594,15 +6621,15 @@
       <c r="C17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="153"/>
     </row>
     <row r="18" spans="1:8" ht="35.25" customHeight="1">
       <c r="A18" s="4">
@@ -6614,15 +6641,15 @@
       <c r="C18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="66" t="s">
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" ht="45.75" customHeight="1">
       <c r="A19" s="4">
@@ -6634,15 +6661,15 @@
       <c r="C19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="66" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="45" customHeight="1">
       <c r="A20" s="4">
@@ -6654,13 +6681,13 @@
       <c r="C20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1">
       <c r="A21" s="4">
@@ -6672,15 +6699,15 @@
       <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="57" t="s">
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="57"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="20.45" customHeight="1">
       <c r="A22" s="4">
@@ -6692,23 +6719,23 @@
       <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="66" t="s">
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="20.45" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
     </row>
@@ -6718,69 +6745,69 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="20"/>
@@ -6793,17 +6820,17 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="69"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="22"/>
@@ -6811,39 +6838,39 @@
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" ht="15">
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="13"/>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="25.9" customHeight="1">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="13"/>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25"/>
@@ -6854,40 +6881,12 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
+  <mergeCells count="42">
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="D37:E37"/>
@@ -6904,6 +6903,32 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6916,8 +6941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
@@ -6933,40 +6958,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -7002,10 +7027,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="39" t="s">
         <v>118</v>
       </c>
@@ -7021,16 +7046,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -7043,10 +7068,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
@@ -7061,10 +7086,10 @@
     </row>
     <row r="11" spans="1:8" ht="6.75" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>121</v>
       </c>
@@ -7073,50 +7098,50 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45625</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="119" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="13"/>
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="60">
         <v>45625</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="110" t="s">
         <v>117</v>
       </c>
       <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
     </row>
@@ -7130,15 +7155,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1">
       <c r="A17" s="37">
@@ -7150,11 +7175,11 @@
       <c r="C17" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="143"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="125" t="s">
         <v>115</v>
       </c>
@@ -7170,11 +7195,11 @@
       <c r="C18" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="143"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="125" t="s">
         <v>115</v>
       </c>
@@ -7186,9 +7211,9 @@
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="125"/>
       <c r="H19" s="126"/>
     </row>
@@ -7198,9 +7223,9 @@
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="143"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="125"/>
       <c r="H20" s="126"/>
     </row>
@@ -7210,9 +7235,9 @@
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="125"/>
       <c r="H21" s="126"/>
     </row>
@@ -7222,9 +7247,9 @@
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="125"/>
       <c r="H22" s="126"/>
     </row>
@@ -7234,9 +7259,9 @@
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="143"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="125"/>
       <c r="H23" s="126"/>
     </row>
@@ -7246,9 +7271,9 @@
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="143"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="125"/>
       <c r="H24" s="126"/>
     </row>
@@ -7258,11 +7283,11 @@
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="37">
@@ -7270,9 +7295,9 @@
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="125"/>
       <c r="H26" s="126"/>
     </row>
@@ -7282,69 +7307,69 @@
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="125"/>
       <c r="H27" s="126"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="132"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="140"/>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" ht="9" customHeight="1">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" ht="4.5" customHeight="1">
       <c r="A33" s="20"/>
@@ -7357,17 +7382,17 @@
       <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="G34" s="69" t="s">
+      <c r="G34" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="69"/>
+      <c r="H34" s="75"/>
     </row>
     <row r="35" spans="1:8" ht="21.75" customHeight="1">
       <c r="A35" s="22"/>
@@ -7375,39 +7400,39 @@
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
       <c r="D37" s="13"/>
-      <c r="G37" s="138" t="s">
+      <c r="G37" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="138"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A38" s="139" t="s">
+      <c r="A38" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
       <c r="D38" s="35"/>
-      <c r="G38" s="140" t="s">
+      <c r="G38" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="140"/>
+      <c r="H38" s="145"/>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
       <c r="A39" s="25"/>
@@ -7418,8 +7443,8 @@
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1"/>
@@ -7443,6 +7468,43 @@
     <row r="63" ht="21.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="D21:F21"/>
@@ -7457,43 +7519,6 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="G38:H38"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7524,40 +7549,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -7593,10 +7618,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="31" t="s">
         <v>43</v>
       </c>
@@ -7612,16 +7637,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -7634,10 +7659,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
@@ -7652,10 +7677,10 @@
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
@@ -7664,16 +7689,16 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45512</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="146" t="s">
         <v>45</v>
       </c>
@@ -7682,32 +7707,32 @@
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="60">
         <v>45512</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="120" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="147">
         <v>643023809</v>
       </c>
       <c r="H14" s="147"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="G15" s="148"/>
       <c r="H15" s="148"/>
     </row>
@@ -7721,15 +7746,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
       <c r="A17" s="16">
@@ -7741,13 +7766,13 @@
       <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="4">
@@ -7759,13 +7784,13 @@
       <c r="C18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="4">
@@ -7777,13 +7802,13 @@
       <c r="C19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="4">
@@ -7795,13 +7820,13 @@
       <c r="C20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="31.5" customHeight="1">
       <c r="A21" s="4">
@@ -7813,13 +7838,13 @@
       <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1">
       <c r="A22" s="4">
@@ -7831,13 +7856,13 @@
       <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1">
       <c r="A23" s="4">
@@ -7849,13 +7874,13 @@
       <c r="C23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" ht="29.25" customHeight="1">
       <c r="A24" s="4">
@@ -7867,81 +7892,81 @@
       <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" ht="10.5" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="132"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="137"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
     </row>
     <row r="29" spans="1:8" ht="12" customHeight="1">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" ht="12" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="20"/>
@@ -7954,17 +7979,17 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="69"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" s="22"/>
@@ -7972,39 +7997,39 @@
       <c r="C33" s="22"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:8" ht="15">
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="13"/>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="63"/>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8" ht="25.9" customHeight="1">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="13"/>
-      <c r="G36" s="65" t="s">
+      <c r="G36" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="65"/>
+      <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25"/>
@@ -8015,43 +8040,12 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="D38:E38"/>
@@ -8068,6 +8062,37 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8097,40 +8122,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
@@ -8166,10 +8191,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="34" t="s">
         <v>70</v>
       </c>
@@ -8185,16 +8210,16 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8" ht="6.95" customHeight="1">
       <c r="A9" s="7"/>
@@ -8207,10 +8232,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="58"/>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
@@ -8225,10 +8250,10 @@
     </row>
     <row r="11" spans="1:8" ht="6.95" customHeight="1"/>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="150" t="s">
         <v>40</v>
       </c>
@@ -8237,16 +8262,16 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="60">
         <v>45524</v>
       </c>
-      <c r="H12" s="92"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="122" t="s">
         <v>41</v>
       </c>
@@ -8255,32 +8280,32 @@
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="60">
         <v>45524</v>
       </c>
-      <c r="H13" s="92"/>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="109" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="97"/>
+      <c r="E14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="149">
         <v>643023809</v>
       </c>
       <c r="H14" s="149"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
@@ -8294,15 +8319,15 @@
       <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
       <c r="A17" s="16">
@@ -8314,15 +8339,15 @@
       <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8" ht="35.25" customHeight="1">
       <c r="A18" s="4">
@@ -8334,15 +8359,15 @@
       <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="66" t="s">
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" ht="45.75" customHeight="1">
       <c r="A19" s="4">
@@ -8350,11 +8375,11 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="45" customHeight="1">
       <c r="A20" s="4">
@@ -8362,11 +8387,11 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="36" customHeight="1">
       <c r="A21" s="4">
@@ -8374,11 +8399,11 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" spans="1:8" ht="20.45" customHeight="1">
       <c r="A22" s="4">
@@ -8386,11 +8411,11 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="20.45" customHeight="1">
       <c r="A23" s="4">
@@ -8398,9 +8423,9 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
     </row>
@@ -8410,69 +8435,69 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="20"/>
@@ -8485,17 +8510,17 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="69"/>
+      <c r="H31" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="22"/>
@@ -8503,39 +8528,39 @@
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" ht="15">
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="13"/>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="25.9" customHeight="1">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="13"/>
-      <c r="G35" s="65" t="s">
+      <c r="G35" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="65"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25"/>
@@ -8546,35 +8571,21 @@
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H29"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="A13:B13"/>
@@ -8588,15 +8599,29 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
